--- a/fastqFiles/fastq_1337.xlsx
+++ b/fastqFiles/fastq_1337.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D120C-004C-BC4C-8774-771E62C9A6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6ABB2F-A1E8-7743-9CE7-E6D334177BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>libraryDate</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B24 E2:E24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,7 +521,7 @@
         <v>1337</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -538,7 +541,7 @@
         <v>1337</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -558,7 +561,7 @@
         <v>1337</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -578,7 +581,7 @@
         <v>1337</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -598,7 +601,7 @@
         <v>1337</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -618,7 +621,7 @@
         <v>1337</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -638,7 +641,7 @@
         <v>1337</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -658,7 +661,7 @@
         <v>1337</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -678,7 +681,7 @@
         <v>1337</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -698,7 +701,7 @@
         <v>1337</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -718,7 +721,7 @@
         <v>1337</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -738,7 +741,7 @@
         <v>1337</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -758,7 +761,7 @@
         <v>1337</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -778,7 +781,7 @@
         <v>1337</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -798,7 +801,7 @@
         <v>1337</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -818,7 +821,7 @@
         <v>1337</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -838,7 +841,7 @@
         <v>1337</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -858,7 +861,7 @@
         <v>1337</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -878,7 +881,7 @@
         <v>1337</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -898,7 +901,7 @@
         <v>1337</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -918,7 +921,7 @@
         <v>1337</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -938,7 +941,7 @@
         <v>1337</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -958,7 +961,7 @@
         <v>1337</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>

--- a/fastqFiles/fastq_1337.xlsx
+++ b/fastqFiles/fastq_1337.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
